--- a/spliced/falling/2023-03-25_17-59-17/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1035416573286056</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.064446285367012</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0453567430377006</v>
+        <v>-0.0216857157647609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0149661982432007</v>
+        <v>-0.1035416573286056</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1327104717493057</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0453567430377006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0374154970049858</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2890919744968414</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0471893399953842</v>
+        <v>-0.0044287731871008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1467603743076324</v>
+        <v>-0.0374154970049858</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5923865437507629</v>
+        <v>-0.2890919744968414</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0804814994335174</v>
+        <v>-0.0471893399953842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2122756689786911</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1849394589662552</v>
+        <v>-0.5923865437507629</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8903360962867737</v>
+        <v>-0.0804814994335174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4007275998592376</v>
+        <v>-0.2122756689786911</v>
       </c>
       <c r="B7" t="n">
-        <v>1.753641366958618</v>
+        <v>0.1849394589662552</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.559844374656677</v>
+        <v>-0.8903360962867737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.124921940267086</v>
+        <v>-0.4007275998592376</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.203251838684082</v>
+        <v>1.753641366958618</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.790293335914612</v>
+        <v>-1.559844374656677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.1690434217453</v>
+        <v>0.124921940267086</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9421069025993348</v>
+        <v>-1.203251838684082</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6352998614311218</v>
+        <v>-1.790293335914612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1931861340999603</v>
+        <v>-1.1690434217453</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.830125093460083</v>
+        <v>0.9421069025993348</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3234531581401825</v>
+        <v>-0.6352998614311218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0713185146450996</v>
+        <v>0.1931861340999603</v>
       </c>
       <c r="B11" t="n">
-        <v>3.081967830657959</v>
+        <v>-3.830125093460083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.3234531581401825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.0713185146450996</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4051563739776611</v>
+        <v>3.081967830657959</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1343903541564941</v>
+        <v>0.0597120784223079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1139263659715652</v>
+        <v>0.3149010241031647</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0247400421649217</v>
+        <v>0.4051563739776611</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0100792767480015</v>
+        <v>0.1343903541564941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.06963863968849179</v>
+        <v>0.1139263659715652</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5192354321479797</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2390010207891464</v>
+        <v>-0.0100792767480015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0478002056479454</v>
+        <v>-0.06963863968849179</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3094032406806946</v>
+        <v>-0.5192354321479797</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5314527750015259</v>
+        <v>0.2390010207891464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.078801617026329</v>
+        <v>0.0478002056479454</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1148426681756973</v>
+        <v>0.3094032406806946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0529925599694252</v>
+        <v>-0.5314527750015259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0858265683054924</v>
+        <v>0.1148426681756973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.090408056974411</v>
+        <v>0.0529925599694252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07803803682327271</v>
+        <v>-0.0858265683054924</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0291688162833452</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0143553335219621</v>
+        <v>-0.0691804885864257</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0123700210824608</v>
+        <v>0.07803803682327271</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09071348607540131</v>
+        <v>-0.0291688162833452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0204639863222837</v>
+        <v>-0.0143553335219621</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0181732401251792</v>
+        <v>0.0123700210824608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0502436682581901</v>
+        <v>-0.09071348607540131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0256563406437635</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0372627787292003</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0050396383740007</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0029016099870204</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0279470849782228</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0612392425537109</v>
+        <v>0.0502436682581901</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-17/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-17/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0108428578823804</v>
+        <v>0.0609338097274303</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.0629191175103187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1035416573286056</v>
+        <v>0.0303905457258224</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.064446285367012</v>
+        <v>0.0102319931611418</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0453567430377006</v>
+        <v>0.0383317954838275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0149661982432007</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.0009162978967650999</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0238237436860799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0374154970049858</v>
+        <v>0.0160352122038602</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2890919744968414</v>
+        <v>-0.0207694191485643</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0471893399953842</v>
+        <v>0.0113010071218013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1467603743076324</v>
+        <v>-0.0288633834570646</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5923865437507629</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0804814994335174</v>
+        <v>-0.0123700210824608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2122756689786911</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1849394589662552</v>
+        <v>0.0401643887162208</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8903360962867737</v>
+        <v>0.0155770638957619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.4007275998592376</v>
+        <v>0.0117591563612222</v>
       </c>
       <c r="B8" t="n">
-        <v>1.753641366958618</v>
+        <v>0.0131336031481623</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.559844374656677</v>
+        <v>0.0174096599221229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.124921940267086</v>
+        <v>0.0245873257517814</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.203251838684082</v>
+        <v>0.0372627787292003</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.790293335914612</v>
+        <v>0.028557950630784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.1690434217453</v>
+        <v>0.0038179077673703</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9421069025993348</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6352998614311218</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1931861340999603</v>
+        <v>-0.0108428578823804</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.830125093460083</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3234531581401825</v>
+        <v>-0.0216857157647609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0713185146450996</v>
+        <v>-0.1035416573286056</v>
       </c>
       <c r="B12" t="n">
-        <v>3.081967830657959</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.0453567430377006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4051563739776611</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1343903541564941</v>
+        <v>-0.0044287731871008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1139263659715652</v>
+        <v>-0.0374154970049858</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.2890919744968414</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0100792767480015</v>
+        <v>-0.0471893399953842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.06963863968849179</v>
+        <v>-0.1467603743076324</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5192354321479797</v>
+        <v>-0.5923865437507629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2390010207891464</v>
+        <v>-0.0804814994335174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0478002056479454</v>
+        <v>-0.2122756689786911</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3094032406806946</v>
+        <v>0.1849394589662552</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5314527750015259</v>
+        <v>-0.8903360962867737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.078801617026329</v>
+        <v>-0.4007275998592376</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1148426681756973</v>
+        <v>1.753641366958618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0529925599694252</v>
+        <v>-1.559844374656677</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.124921940267086</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0858265683054924</v>
+        <v>-1.203251838684082</v>
       </c>
       <c r="C18" t="n">
-        <v>0.090408056974411</v>
+        <v>-1.790293335914612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-1.1690434217453</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07803803682327271</v>
+        <v>0.9421069025993348</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0291688162833452</v>
+        <v>-0.6352998614311218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0143553335219621</v>
+        <v>0.1931861340999603</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0123700210824608</v>
+        <v>-3.830125093460083</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09071348607540131</v>
+        <v>-0.3234531581401825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0713185146450996</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.081967830657959</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3149010241031647</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4051563739776611</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1343903541564941</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1139263659715652</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0247400421649217</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.0100792767480015</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.06963863968849179</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.5192354321479797</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2390010207891464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0478002056479454</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3094032406806946</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5314527750015259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.078801617026329</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1148426681756973</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0529925599694252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1204931661486625</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0858265683054924</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.090408056974411</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0691804885864257</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07803803682327271</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0291688162833452</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0143553335219621</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0123700210824608</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.09071348607540131</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.0204639863222837</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>0.0181732401251792</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.0502436682581901</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0256563406437635</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0372627787292003</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0050396383740007</v>
       </c>
     </row>
   </sheetData>
